--- a/example.xlsx
+++ b/example.xlsx
@@ -1,74 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>input card name</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>highest</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>charizard unlimited 4/102 cgc 7</t>
-  </si>
-  <si>
-    <t>cgc 7</t>
-  </si>
-  <si>
-    <t>snodax series 1 #143 psa 9</t>
-  </si>
-  <si>
-    <t>psa 9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,30 +56,92 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,87 +429,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col width="32.14785714285715" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>input card name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>highest</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>charizard unlimited 4/102 cgc 7</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>cgc 7</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>326.50625</v>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>https://130point.com/sales/</t>
+        </is>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>snodax series 1 #143 psa 9</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>psa 9</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>https://130point.com/sales/</t>
+        </is>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>charizard unlimited 4/102 cgc 7</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>350.9823703703703</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>https://130point.com/sales/</t>
+        </is>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>snodax series 1 #143 psa 9</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>https://130point.com/sales/</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -16,13 +16,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -58,15 +64,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -434,7 +467,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,15 +475,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.14785714285715" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.005" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13.005" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.005" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="13.005" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="13.005" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
+    <col width="32.14785714285715" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="12" min="5" max="5"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>input card name</t>
@@ -461,28 +495,33 @@
           <t>level</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>highest</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>lowest</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>number of result</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>charizard unlimited 4/102 cgc 7</t>
@@ -493,22 +532,25 @@
           <t>cgc 7</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>225</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>326.50625</v>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>https://130point.com/sales/</t>
+      <c r="C2" s="6" t="n">
+        <v>3422.38</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>1509.87</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>1996.453076923077</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/sch/i.html?_nkw=charizard+unlimited+4%2F102+cgc+7&amp;LH_Sold=1&amp;LH_Complete=1</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>snodax series 1 #143 psa 9</t>
@@ -519,50 +561,59 @@
           <t>psa 9</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>https://130point.com/sales/</t>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="11" t="n"/>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/sch/i.html?_nkw=snodax+series+1+%23143+psa+9&amp;LH_Sold=1&amp;LH_Complete=1</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>charizard unlimited 4/102 cgc 7</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n">
-        <v>3600</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>65</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>350.9823703703703</v>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>https://130point.com/sales/</t>
+      <c r="B4" s="10" t="n"/>
+      <c r="C4" s="6" t="n">
+        <v>3422.38</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1509.87</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2115.088947368421</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/sch/i.html?_nkw=charizard+unlimited+4%2F102+cgc+7&amp;LH_Sold=1&amp;LH_Complete=1</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>snodax series 1 #143 psa 9</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>https://130point.com/sales/</t>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="12" t="n"/>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/sch/i.html?_nkw=snodax+series+1+%23143+psa+9&amp;LH_Sold=1&amp;LH_Complete=1</t>
         </is>
       </c>
     </row>
